--- a/maintenance/UV_CuringSystem_Maintenance_Tracker_Template.xlsx
+++ b/maintenance/UV_CuringSystem_Maintenance_Tracker_Template.xlsx
@@ -1,14 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tasks" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Settings" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -28,23 +27,17 @@
     </font>
     <font>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="001F4E79"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -52,19 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -139,35 +134,6 @@
     </indexedColors>
   </colors>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="MaintenanceTasks" displayName="MaintenanceTasks" ref="A1:T5" headerRowCount="1">
-  <autoFilter ref="A1:T5"/>
-  <tableColumns count="20">
-    <tableColumn id="1" name="Equipment"/>
-    <tableColumn id="2" name="Task ID"/>
-    <tableColumn id="3" name="Task Name"/>
-    <tableColumn id="4" name="Interval Type"/>
-    <tableColumn id="5" name="Interval Value"/>
-    <tableColumn id="6" name="Interval Unit"/>
-    <tableColumn id="7" name="Trigger Context"/>
-    <tableColumn id="8" name="Tracking Mode"/>
-    <tableColumn id="9" name="Hours Source"/>
-    <tableColumn id="10" name="Calendar Rule"/>
-    <tableColumn id="11" name="Due Threshold (days)"/>
-    <tableColumn id="12" name="Document Name"/>
-    <tableColumn id="13" name="Document File/Link"/>
-    <tableColumn id="14" name="Manual Page"/>
-    <tableColumn id="15" name="Procedure Summary"/>
-    <tableColumn id="16" name="Safety/Notes"/>
-    <tableColumn id="17" name="Owner"/>
-    <tableColumn id="18" name="Last Done Date"/>
-    <tableColumn id="19" name="Last Done Hours"/>
-    <tableColumn id="20" name="Last Done Furnace Hours"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showRowStripes="1"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -459,36 +425,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="22" customWidth="1" min="1" max="1"/>
-    <col width="22" customWidth="1" min="2" max="2"/>
-    <col width="22" customWidth="1" min="3" max="3"/>
-    <col width="22" customWidth="1" min="4" max="4"/>
-    <col width="22" customWidth="1" min="5" max="5"/>
-    <col width="22" customWidth="1" min="6" max="6"/>
-    <col width="22" customWidth="1" min="7" max="7"/>
-    <col width="22" customWidth="1" min="8" max="8"/>
-    <col width="22" customWidth="1" min="9" max="9"/>
-    <col width="22" customWidth="1" min="10" max="10"/>
-    <col width="22" customWidth="1" min="11" max="11"/>
-    <col width="22" customWidth="1" min="12" max="12"/>
-    <col width="22" customWidth="1" min="13" max="13"/>
-    <col width="22" customWidth="1" min="14" max="14"/>
-    <col width="70" customWidth="1" min="15" max="15"/>
-    <col width="70" customWidth="1" min="16" max="16"/>
-    <col width="22" customWidth="1" min="17" max="17"/>
-    <col width="22" customWidth="1" min="18" max="18"/>
-    <col width="22" customWidth="1" min="19" max="19"/>
-    <col width="22" customWidth="1" min="20" max="20"/>
-  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
@@ -591,388 +534,332 @@
           <t>Last Done Furnace Hours</t>
         </is>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>UV Curing System</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>UV-MNT-001</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Before every start-up: clean shutters and quartz liner tube</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>run</t>
-        </is>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F2" s="2" t="inlineStr">
-        <is>
-          <t>before start-up</t>
-        </is>
-      </c>
-      <c r="G2" s="2" t="inlineStr">
-        <is>
-          <t>Routine – Before every start-up attempt</t>
-        </is>
-      </c>
-      <c r="H2" s="2" t="inlineStr">
-        <is>
-          <t>event</t>
-        </is>
-      </c>
-      <c r="I2" s="2" t="inlineStr"/>
-      <c r="J2" s="2" t="inlineStr"/>
-      <c r="K2" s="2" t="inlineStr"/>
-      <c r="L2" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
-        </is>
-      </c>
-      <c r="M2" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System.pdf</t>
-        </is>
-      </c>
-      <c r="N2" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="O2" s="2" t="inlineStr">
-        <is>
-          <t>Clean shutter doors (remove resin deposits) using lint-free tissue soaked in methanol. Clean quartz liner tube using a long-handled bottle brush soaked in methanol through full tube length several times (top to bottom). Ensure tube is fully seated on locating pin after cleaning.</t>
-        </is>
-      </c>
-      <c r="P2" s="2" t="inlineStr">
-        <is>
-          <t>Methanol hazard – wear impermeable gloves. Ensure UV lamps are OFF and isolated during cleaning.</t>
-        </is>
-      </c>
-      <c r="Q2" s="2" t="inlineStr"/>
-      <c r="R2" s="2" t="inlineStr"/>
-      <c r="S2" s="2" t="inlineStr"/>
-      <c r="T2" s="2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="inlineStr">
-        <is>
-          <t>UV Curing System</t>
-        </is>
-      </c>
-      <c r="B3" s="2" t="inlineStr">
-        <is>
-          <t>UV-MNT-002</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr">
-        <is>
-          <t>After full preform draw: inspect quartz liner tube for discolouration (replace if needed)</t>
-        </is>
-      </c>
-      <c r="D3" s="2" t="inlineStr">
-        <is>
-          <t>event</t>
-        </is>
-      </c>
-      <c r="E3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="F3" s="2" t="inlineStr">
-        <is>
-          <t>after full preform draw</t>
-        </is>
-      </c>
-      <c r="G3" s="2" t="inlineStr">
-        <is>
-          <t>Routine – After completing a full preform draw</t>
-        </is>
-      </c>
-      <c r="H3" s="2" t="inlineStr">
-        <is>
-          <t>event</t>
-        </is>
-      </c>
-      <c r="I3" s="2" t="inlineStr"/>
-      <c r="J3" s="2" t="inlineStr"/>
-      <c r="K3" s="2" t="inlineStr"/>
-      <c r="L3" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
-        </is>
-      </c>
-      <c r="M3" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System.pdf</t>
-        </is>
-      </c>
-      <c r="N3" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O3" s="2" t="inlineStr">
-        <is>
-          <t>Inspect the quartz liner tube for any discolouration. Replace the tube if any discolouration is present.</t>
-        </is>
-      </c>
-      <c r="P3" s="2" t="inlineStr">
-        <is>
-          <t>Allow lamp to cool; handle quartz with clean cotton gloves to avoid contamination.</t>
-        </is>
-      </c>
-      <c r="Q3" s="2" t="inlineStr"/>
-      <c r="R3" s="2" t="inlineStr"/>
-      <c r="S3" s="2" t="inlineStr"/>
-      <c r="T3" s="2" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="inlineStr">
-        <is>
-          <t>UV Curing System</t>
-        </is>
-      </c>
-      <c r="B4" s="2" t="inlineStr">
-        <is>
-          <t>UV-MNT-003</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>Every 500 operating hours: clean lamp module, reflector, bulb and RF screen</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="n">
-        <v>500</v>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>Routine – Every 500 hours</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>hours</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>lamp_hours</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr"/>
-      <c r="K4" s="2" t="inlineStr"/>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System.pdf</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O4" s="2" t="inlineStr">
-        <is>
-          <t>Clean lamp module surfaces. Inspect and clean reflector, UV lamp bulb and RF screen using lint-free tissue soaked in methanol.</t>
-        </is>
-      </c>
-      <c r="P4" s="2" t="inlineStr">
-        <is>
-          <t>Electrical isolation required. Cool lamp in STANDBY before servicing.</t>
-        </is>
-      </c>
-      <c r="Q4" s="2" t="inlineStr"/>
-      <c r="R4" s="2" t="inlineStr"/>
-      <c r="S4" s="2" t="inlineStr"/>
-      <c r="T4" s="2" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="inlineStr">
-        <is>
-          <t>UV Curing System – PSU</t>
-        </is>
-      </c>
-      <c r="B5" s="2" t="inlineStr">
-        <is>
-          <t>UV-MNT-004</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>Every 3 months: remove dust from PSU units and replace air filters if required</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>calendar</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>Routine – Every 3 months</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>calendar</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr"/>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>months</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>Ultra Violet Curing System.pdf</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="O5" s="2" t="inlineStr">
-        <is>
-          <t>Remove dust from PSU units. Inspect and replace air filters if required.</t>
-        </is>
-      </c>
-      <c r="P5" s="2" t="inlineStr">
-        <is>
-          <t>Isolate electrical power before opening PSU cabinets.</t>
-        </is>
-      </c>
-      <c r="Q5" s="2" t="inlineStr"/>
-      <c r="R5" s="2" t="inlineStr"/>
-      <c r="S5" s="2" t="inlineStr"/>
-      <c r="T5" s="2" t="inlineStr"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <tableParts count="1">
-    <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="32" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="70" customWidth="1" min="3" max="3"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>Key</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>Notes</t>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>Last_Done_Draw</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>Tracking_Mode_norm</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Today</t>
+          <t>UV Curing System</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2026-01-29</t>
+          <t>UV-MNT-001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Streamlit should override with current date</t>
+          <t>Before every start-up: clean shutters and quartz liner tube</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>run</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>before start-up</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Routine – Before every start-up attempt</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System.pdf</t>
+        </is>
+      </c>
+      <c r="N2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>Clean shutter doors (remove resin deposits) using lint-free tissue soaked in methanol. Clean quartz liner tube using a long-handled bottle brush soaked in methanol through full tube length several times (top to bottom). Ensure tube is fully seated on locating pin after cleaning.</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>Methanol hazard – wear impermeable gloves. Ensure UV lamps are OFF and isolated during cleaning.</t>
+        </is>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>event</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AlertWindowDaysDefault</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>7</v>
+          <t>UV Curing System</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>UV-MNT-002</t>
+        </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Default warning window for calendar tasks</t>
+          <t>After full preform draw: inspect quartz liner tube for discolouration (replace if needed)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>1</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>after full preform draw</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>Routine – After completing a full preform draw</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>event</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System.pdf</t>
+        </is>
+      </c>
+      <c r="N3" t="n">
+        <v>12</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>Inspect the quartz liner tube for any discolouration. Replace the tube if any discolouration is present.</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>Allow lamp to cool; handle quartz with clean cotton gloves to avoid contamination.</t>
+        </is>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>2026-02-11</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>event</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>LampHourSource</t>
+          <t>UV Curing System</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>UV-MNT-003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Every 500 operating hours: clean lamp module, reflector, bulb and RF screen</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>500</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Routine – Every 500 hours</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
           <t>lamp_hours</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Use your UV PSU/PLC lamp-hour counter feeding Streamlit</t>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System.pdf</t>
+        </is>
+      </c>
+      <c r="N4" t="n">
+        <v>12</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Clean lamp module surfaces. Inspect and clean reflector, UV lamp bulb and RF screen using lint-free tissue soaked in methanol.</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>Electrical isolation required. Cool lamp in STANDBY before servicing.</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>hours</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UV Curing System – PSU</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>UV-MNT-004</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Every 3 months: remove dust from PSU units and replace air filters if required</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>calendar</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Routine – Every 3 months</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>calendar</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>months</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
+        <v>7</v>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System – F600S / I606 / P600M</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Ultra Violet Curing System.pdf</t>
+        </is>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Remove dust from PSU units. Inspect and replace air filters if required.</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>Isolate electrical power before opening PSU cabinets.</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t>calendar</t>
         </is>
       </c>
     </row>
